--- a/src/main/resources/178-sc/sc-consumer-jsp_structure.xlsx
+++ b/src/main/resources/178-sc/sc-consumer-jsp_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="448">
   <si>
     <t>类名</t>
   </si>
@@ -118,7 +118,7 @@
     <t>private</t>
   </si>
   <si>
-    <t>doFilter(javax.servlet.ServletRequest)</t>
+    <t>doFilter(javax.servlet.ServletRequest,javax.servlet.ServletResponse,javax.servlet.FilterChain)</t>
   </si>
   <si>
     <t>excludeUrl(java.lang.String)</t>
@@ -136,13 +136,13 @@
     <t>com.wangxin.consumer.jsp.common.authority.filter.XSSSecurityFilter</t>
   </si>
   <si>
-    <t>checkRequestResponse(javax.servlet.ServletRequest)</t>
+    <t>checkRequestResponse(javax.servlet.ServletRequest,javax.servlet.ServletResponse)</t>
   </si>
   <si>
     <t>com.wangxin.consumer.jsp.common.authority.service.xss.XSSSecurityManager</t>
   </si>
   <si>
-    <t>getEleValue(org.dom4j.Element)</t>
+    <t>getEleValue(org.dom4j.Element,java.lang.String)</t>
   </si>
   <si>
     <t>initConfig(java.net.URL)</t>
@@ -349,7 +349,7 @@
     <t>com.wangxin.consumer.jsp.common.shiro.MShiroFilterFactoryBean$MSpringShiroFilter</t>
   </si>
   <si>
-    <t>doFilterInternal(javax.servlet.ServletRequest)</t>
+    <t>doFilterInternal(javax.servlet.ServletRequest,javax.servlet.ServletResponse,javax.servlet.FilterChain)</t>
   </si>
   <si>
     <t>com.wangxin.consumer.jsp.common.shiro.MShiroFilterFactoryBean</t>
@@ -1057,7 +1057,7 @@
     <t>com.wangxin.consumer.jsp.web.controller.auth.LoginController</t>
   </si>
   <si>
-    <t>login(org.springframework.web.servlet.mvc.support.RedirectAttributes)</t>
+    <t>login(com.wangxin.common.api.model.auth.User,org.springframework.web.servlet.mvc.support.RedirectAttributes)</t>
   </si>
   <si>
     <t>logout()</t>
@@ -1078,7 +1078,7 @@
     <t>home()</t>
   </si>
   <si>
-    <t>error(javax.servlet.http.HttpServletRequest)</t>
+    <t>error(javax.servlet.http.HttpServletRequest,org.springframework.ui.ModelMap)</t>
   </si>
   <si>
     <t>topnav()</t>
@@ -1343,6 +1343,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>源接口名</t>
@@ -9172,7 +9175,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9237,10 +9240,10 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>440</v>
@@ -9251,13 +9254,13 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>440</v>
@@ -9268,13 +9271,13 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>440</v>
@@ -9282,16 +9285,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>440</v>
@@ -9302,7 +9305,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -9319,30 +9322,30 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>440</v>
@@ -9350,16 +9353,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>440</v>
@@ -9370,13 +9373,13 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>440</v>
@@ -9387,13 +9390,13 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>440</v>
@@ -9404,13 +9407,13 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>440</v>
@@ -9421,13 +9424,13 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>440</v>
@@ -9438,13 +9441,13 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
         <v>440</v>
@@ -9455,13 +9458,13 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>440</v>
@@ -9469,16 +9472,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>440</v>
@@ -9486,16 +9489,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>440</v>
@@ -9512,7 +9515,7 @@
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>440</v>
@@ -9529,7 +9532,7 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
         <v>440</v>
@@ -9546,7 +9549,7 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
         <v>440</v>
@@ -9563,7 +9566,7 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
         <v>440</v>
@@ -9580,7 +9583,7 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
         <v>440</v>
@@ -9597,7 +9600,7 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
         <v>440</v>
@@ -9614,7 +9617,7 @@
         <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>440</v>
@@ -9622,16 +9625,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
         <v>440</v>
@@ -9639,16 +9642,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>440</v>
@@ -9656,16 +9659,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
         <v>440</v>
@@ -9676,30 +9679,30 @@
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>440</v>
@@ -9707,35 +9710,69 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
         <v>116</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
         <v>129</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>116</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>117</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9754,10 +9791,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
         <v>436</v>
@@ -9790,10 +9827,10 @@
         <v>435</v>
       </c>
       <c r="C1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E1" t="s">
         <v>438</v>
@@ -9814,16 +9851,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" t="s">
         <v>445</v>
-      </c>
-      <c r="D1" t="s">
-        <v>444</v>
       </c>
       <c r="E1" t="s">
         <v>438</v>
@@ -9853,7 +9890,7 @@
         <v>436</v>
       </c>
       <c r="D1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E1" t="s">
         <v>438</v>
@@ -10333,16 +10370,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
         <v>436</v>
       </c>
       <c r="D1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E1" t="s">
         <v>438</v>
